--- a/result/without_base/124/arousal/s09_3.xlsx
+++ b/result/without_base/124/arousal/s09_3.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.6875</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.6100000143051147</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C2" t="n">
-        <v>41728.58203125</v>
+        <v>41800.712890625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6517045552080328</v>
+        <v>0.6177272579886697</v>
       </c>
       <c r="E2" t="n">
-        <v>41726.32386363636</v>
+        <v>41801.45880681818</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6024999916553497</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C3" t="n">
-        <v>40976.349609375</v>
+        <v>41076.40234375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6279545534740795</v>
+        <v>0.6140909194946289</v>
       </c>
       <c r="E3" t="n">
-        <v>40974.52947443182</v>
+        <v>41074.82457386364</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5974999964237213</v>
+        <v>0.6449999809265137</v>
       </c>
       <c r="C4" t="n">
-        <v>40236.98046875</v>
+        <v>40360.26171875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6535227298736572</v>
+        <v>0.655454543503848</v>
       </c>
       <c r="E4" t="n">
-        <v>40234.40376420454</v>
+        <v>40359.13352272727</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6324999928474426</v>
+        <v>0.6349999904632568</v>
       </c>
       <c r="C5" t="n">
-        <v>39501.642578125</v>
+        <v>39645.9765625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6872727274894714</v>
+        <v>0.6720454584468495</v>
       </c>
       <c r="E5" t="n">
-        <v>39500.14524147727</v>
+        <v>39644.79225852273</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5974999964237213</v>
+        <v>0.5824999809265137</v>
       </c>
       <c r="C6" t="n">
-        <v>38785.447265625</v>
+        <v>38940.421875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7057954560626637</v>
+        <v>0.6622727296569131</v>
       </c>
       <c r="E6" t="n">
-        <v>38783.94140625</v>
+        <v>38938.15944602273</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6175000071525574</v>
+        <v>0.6524999737739563</v>
       </c>
       <c r="C7" t="n">
-        <v>38078.421875</v>
+        <v>38241.3046875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7118181748823686</v>
+        <v>0.6988636417822405</v>
       </c>
       <c r="E7" t="n">
-        <v>38076.98792613636</v>
+        <v>38239.95667613636</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6475000083446503</v>
+        <v>0.6225000023841858</v>
       </c>
       <c r="C8" t="n">
-        <v>37381.685546875</v>
+        <v>37552.1328125</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7092045437205922</v>
+        <v>0.693522718819705</v>
       </c>
       <c r="E8" t="n">
-        <v>37380.44105113636</v>
+        <v>37550.96839488636</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.6175000071525574</v>
+        <v>0.6499999761581421</v>
       </c>
       <c r="C9" t="n">
-        <v>36697.96484375</v>
+        <v>36873.548828125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6676136363636364</v>
+        <v>0.7215909145095132</v>
       </c>
       <c r="E9" t="n">
-        <v>36696.52663352273</v>
+        <v>36872.04438920454</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5775000154972076</v>
+        <v>0.6624999940395355</v>
       </c>
       <c r="C10" t="n">
-        <v>36020.58203125</v>
+        <v>36203.734375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6395454569296404</v>
+        <v>0.7142045443708246</v>
       </c>
       <c r="E10" t="n">
-        <v>36019.16299715909</v>
+        <v>36202.49183238636</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6274999976158142</v>
+        <v>0.6400000154972076</v>
       </c>
       <c r="C11" t="n">
-        <v>35354.048828125</v>
+        <v>35544.611328125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7278409058397467</v>
+        <v>0.7084090872244402</v>
       </c>
       <c r="E11" t="n">
-        <v>35352.85262784091</v>
+        <v>35543.60653409091</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6050000190734863</v>
+        <v>0.6724999845027924</v>
       </c>
       <c r="C12" t="n">
-        <v>34698.3671875</v>
+        <v>34893.900390625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7354545484889637</v>
+        <v>0.7261363701386885</v>
       </c>
       <c r="E12" t="n">
-        <v>34697.16832386364</v>
+        <v>34892.96022727273</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.625</v>
+        <v>0.6974999904632568</v>
       </c>
       <c r="C13" t="n">
-        <v>34053.046875</v>
+        <v>34254.546875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.715568179433996</v>
+        <v>0.7365909110416066</v>
       </c>
       <c r="E13" t="n">
-        <v>34051.97727272727</v>
+        <v>34253.17045454546</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6599999964237213</v>
+        <v>0.6574999988079071</v>
       </c>
       <c r="C14" t="n">
-        <v>33417.4453125</v>
+        <v>33624.533203125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7589772668751803</v>
+        <v>0.73318181254647</v>
       </c>
       <c r="E14" t="n">
-        <v>33416.45916193182</v>
+        <v>33623.32848011364</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6150000095367432</v>
+        <v>0.6624999940395355</v>
       </c>
       <c r="C15" t="n">
-        <v>32792.45703125</v>
+        <v>33003.912109375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7630681774832986</v>
+        <v>0.748750009319999</v>
       </c>
       <c r="E15" t="n">
-        <v>32791.39488636364</v>
+        <v>33002.81711647727</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.675000011920929</v>
+        <v>0.6825000047683716</v>
       </c>
       <c r="C16" t="n">
-        <v>32177.390625</v>
+        <v>32393.2939453125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7580681876702742</v>
+        <v>0.7440909201448614</v>
       </c>
       <c r="E16" t="n">
-        <v>32176.30894886364</v>
+        <v>32392.25</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6649999916553497</v>
+        <v>0.6474999785423279</v>
       </c>
       <c r="C17" t="n">
-        <v>31572.7255859375</v>
+        <v>31793.3525390625</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7510227235880765</v>
+        <v>0.7359090989286249</v>
       </c>
       <c r="E17" t="n">
-        <v>31571.73810369318</v>
+        <v>31792.32972301136</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6975000202655792</v>
+        <v>0.6624999940395355</v>
       </c>
       <c r="C18" t="n">
-        <v>30977.591796875</v>
+        <v>31202.517578125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7782954519445245</v>
+        <v>0.7536363764242693</v>
       </c>
       <c r="E18" t="n">
-        <v>30976.70099431818</v>
+        <v>31201.38494318182</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.632500022649765</v>
+        <v>0.6375000178813934</v>
       </c>
       <c r="C19" t="n">
-        <v>30392.9658203125</v>
+        <v>30621.251953125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7752272703430869</v>
+        <v>0.7834090915593234</v>
       </c>
       <c r="E19" t="n">
-        <v>30391.90127840909</v>
+        <v>30620.02805397727</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.6425000131130219</v>
+        <v>0.6725000143051147</v>
       </c>
       <c r="C20" t="n">
-        <v>29818.4189453125</v>
+        <v>30049.9345703125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7604545463215221</v>
+        <v>0.7784090909090909</v>
       </c>
       <c r="E20" t="n">
-        <v>29817.28178267046</v>
+        <v>30048.71484375</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6624999940395355</v>
+        <v>0.6649999916553497</v>
       </c>
       <c r="C21" t="n">
-        <v>29252.857421875</v>
+        <v>29488.060546875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7798863595182245</v>
+        <v>0.7553409121253274</v>
       </c>
       <c r="E21" t="n">
-        <v>29251.84872159091</v>
+        <v>29486.87073863636</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6749999821186066</v>
+        <v>0.6875</v>
       </c>
       <c r="C22" t="n">
-        <v>28697.3857421875</v>
+        <v>28935.4375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7890909097411416</v>
+        <v>0.7773863673210144</v>
       </c>
       <c r="E22" t="n">
-        <v>28696.56747159091</v>
+        <v>28934.431640625</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="C23" t="n">
-        <v>28151.6806640625</v>
+        <v>28392.3203125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7901136333292181</v>
+        <v>0.7771590839732777</v>
       </c>
       <c r="E23" t="n">
-        <v>28150.73384232954</v>
+        <v>28391.22088068182</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.6400000154972076</v>
+        <v>0.637499988079071</v>
       </c>
       <c r="C24" t="n">
-        <v>27615.6162109375</v>
+        <v>27858.7490234375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7602272738109935</v>
+        <v>0.7697727246717974</v>
       </c>
       <c r="E24" t="n">
-        <v>27614.80522017046</v>
+        <v>27857.63529829546</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.637499988079071</v>
+        <v>0.6775000095367432</v>
       </c>
       <c r="C25" t="n">
-        <v>27088.3603515625</v>
+        <v>27333.625</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7929545424201272</v>
+        <v>0.7862499952316284</v>
       </c>
       <c r="E25" t="n">
-        <v>27087.44762073864</v>
+        <v>27332.51740056818</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6574999988079071</v>
+        <v>0.6349999904632568</v>
       </c>
       <c r="C26" t="n">
-        <v>26570.662109375</v>
+        <v>26818.0947265625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7889772816137834</v>
+        <v>0.8000000065023248</v>
       </c>
       <c r="E26" t="n">
-        <v>26569.73845880682</v>
+        <v>26816.74396306818</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7075000107288361</v>
+        <v>0.6624999940395355</v>
       </c>
       <c r="C27" t="n">
-        <v>26062.0009765625</v>
+        <v>26311.22265625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7890909097411416</v>
+        <v>0.7976136424324729</v>
       </c>
       <c r="E27" t="n">
-        <v>26061.15909090909</v>
+        <v>26309.85387073864</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7175000011920929</v>
+        <v>0.6875</v>
       </c>
       <c r="C28" t="n">
-        <v>25562.232421875</v>
+        <v>25813.005859375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7990909164602106</v>
+        <v>0.7994318225167014</v>
       </c>
       <c r="E28" t="n">
-        <v>25561.41193181818</v>
+        <v>25811.701171875</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.6649999916553497</v>
+        <v>0.6274999976158142</v>
       </c>
       <c r="C29" t="n">
-        <v>25071.6904296875</v>
+        <v>25323.7802734375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7707954536784779</v>
+        <v>0.7762499993497675</v>
       </c>
       <c r="E29" t="n">
-        <v>25070.86878551136</v>
+        <v>25322.48899147727</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.6324999928474426</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C30" t="n">
-        <v>24589.3447265625</v>
+        <v>24842.48046875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7998863729563627</v>
+        <v>0.798863638531078</v>
       </c>
       <c r="E30" t="n">
-        <v>24588.50727982954</v>
+        <v>24841.27024147727</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6725000143051147</v>
+        <v>0.7050000131130219</v>
       </c>
       <c r="C31" t="n">
-        <v>24115.724609375</v>
+        <v>24369.580078125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8107954534617338</v>
+        <v>0.8092045458880338</v>
       </c>
       <c r="E31" t="n">
-        <v>24114.78515625</v>
+        <v>24368.52858664773</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6324999928474426</v>
+        <v>0.7125000059604645</v>
       </c>
       <c r="C32" t="n">
-        <v>23650.4208984375</v>
+        <v>23905.443359375</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8309091004458341</v>
+        <v>0.7901136387478221</v>
       </c>
       <c r="E32" t="n">
-        <v>23649.51775568182</v>
+        <v>23904.49680397727</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6574999988079071</v>
+        <v>0.6324999928474426</v>
       </c>
       <c r="C33" t="n">
-        <v>23193.908203125</v>
+        <v>23449.6923828125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7869318181818182</v>
+        <v>0.7898863608186896</v>
       </c>
       <c r="E33" t="n">
-        <v>23193.09357244318</v>
+        <v>23448.46928267046</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7099999785423279</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="C34" t="n">
-        <v>22745.060546875</v>
+        <v>23001.3525390625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7924999973990701</v>
+        <v>0.8060227253220298</v>
       </c>
       <c r="E34" t="n">
-        <v>22744.28160511364</v>
+        <v>23000.19513494318</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6724999845027924</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="C35" t="n">
-        <v>22304.49609375</v>
+        <v>22560.96875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7753409038890492</v>
+        <v>0.8126136227087541</v>
       </c>
       <c r="E35" t="n">
-        <v>22303.86470170454</v>
+        <v>22559.89044744318</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.6400000154972076</v>
       </c>
       <c r="C36" t="n">
-        <v>21871.482421875</v>
+        <v>22129.109375</v>
       </c>
       <c r="D36" t="n">
-        <v>0.82534090497277</v>
+        <v>0.7692045406861738</v>
       </c>
       <c r="E36" t="n">
-        <v>21870.75621448864</v>
+        <v>22127.89133522727</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7100000083446503</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="C37" t="n">
-        <v>21446.677734375</v>
+        <v>21703.822265625</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8226136456836354</v>
+        <v>0.8154545426368713</v>
       </c>
       <c r="E37" t="n">
-        <v>21445.94282670454</v>
+        <v>21702.66104403409</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.6749999821186066</v>
+        <v>0.7049999833106995</v>
       </c>
       <c r="C38" t="n">
-        <v>21029.5625</v>
+        <v>21286.3857421875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8044318123297258</v>
+        <v>0.8186363740400835</v>
       </c>
       <c r="E38" t="n">
-        <v>21028.69584517046</v>
+        <v>21285.3828125</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.6499999761581421</v>
+        <v>0.679999977350235</v>
       </c>
       <c r="C39" t="n">
-        <v>20619.8251953125</v>
+        <v>20876.8525390625</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8068181818181818</v>
+        <v>0.8167045441540804</v>
       </c>
       <c r="E39" t="n">
-        <v>20619.09055397727</v>
+        <v>20875.70401278409</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.679999977350235</v>
+        <v>0.637499988079071</v>
       </c>
       <c r="C40" t="n">
-        <v>20217.255859375</v>
+        <v>20474.3896484375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8071590932932767</v>
+        <v>0.8059090863574635</v>
       </c>
       <c r="E40" t="n">
-        <v>20216.63902698864</v>
+        <v>20473.13299005682</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6875</v>
+        <v>0.675000011920929</v>
       </c>
       <c r="C41" t="n">
-        <v>19822.251953125</v>
+        <v>20078.7275390625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8148863640698519</v>
+        <v>0.8307954614812677</v>
       </c>
       <c r="E41" t="n">
-        <v>19821.58895596591</v>
+        <v>20077.68483664773</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.6525000035762787</v>
+        <v>0.7025000154972076</v>
       </c>
       <c r="C42" t="n">
-        <v>19434.41015625</v>
+        <v>19690.69921875</v>
       </c>
       <c r="D42" t="n">
-        <v>0.804886362769387</v>
+        <v>0.8144318136301908</v>
       </c>
       <c r="E42" t="n">
-        <v>19433.72709517046</v>
+        <v>19689.61239346591</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6850000023841858</v>
+        <v>0.6875</v>
       </c>
       <c r="C43" t="n">
-        <v>19053.7421875</v>
+        <v>19309.0546875</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8034090833230452</v>
+        <v>0.8223863677545027</v>
       </c>
       <c r="E43" t="n">
-        <v>19053.06480823864</v>
+        <v>19308.13902698864</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.6450000107288361</v>
+        <v>0.6400000154972076</v>
       </c>
       <c r="C44" t="n">
-        <v>18679.990234375</v>
+        <v>18935.240234375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.782045456496152</v>
+        <v>0.7931818257678639</v>
       </c>
       <c r="E44" t="n">
-        <v>18679.36896306818</v>
+        <v>18934.10120738636</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.6774999797344208</v>
+        <v>0.6699999868869781</v>
       </c>
       <c r="C45" t="n">
-        <v>18312.5458984375</v>
+        <v>18567.1396484375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8223863623358987</v>
+        <v>0.8137500015172091</v>
       </c>
       <c r="E45" t="n">
-        <v>18311.86363636364</v>
+        <v>18566.05042613636</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.6775000095367432</v>
+        <v>0.6800000071525574</v>
       </c>
       <c r="C46" t="n">
-        <v>17952.25390625</v>
+        <v>18205.880859375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7947727279229597</v>
+        <v>0.8110227259722623</v>
       </c>
       <c r="E46" t="n">
-        <v>17951.69992897727</v>
+        <v>18204.83931107954</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6775000095367432</v>
+        <v>0.6825000047683716</v>
       </c>
       <c r="C47" t="n">
-        <v>17598.5439453125</v>
+        <v>17851.2685546875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8015909032388167</v>
+        <v>0.818068184635856</v>
       </c>
       <c r="E47" t="n">
-        <v>17597.93039772727</v>
+        <v>17850.21786221591</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.6450000107288361</v>
+        <v>0.6399999856948853</v>
       </c>
       <c r="C48" t="n">
-        <v>17251.1015625</v>
+        <v>17503.021484375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8212499997832559</v>
+        <v>0.8090909123420715</v>
       </c>
       <c r="E48" t="n">
-        <v>17250.45791903409</v>
+        <v>17501.98455255682</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7025000154972076</v>
+        <v>0.6975000202655792</v>
       </c>
       <c r="C49" t="n">
-        <v>16910.0078125</v>
+        <v>17161.0458984375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8264772675254128</v>
+        <v>0.8277272798798301</v>
       </c>
       <c r="E49" t="n">
-        <v>16909.51154119318</v>
+        <v>17159.96111505682</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.6850000023841858</v>
+        <v>0.675000011920929</v>
       </c>
       <c r="C50" t="n">
-        <v>16575.26171875</v>
+        <v>16825.3857421875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8312500010837208</v>
+        <v>0.813409073786302</v>
       </c>
       <c r="E50" t="n">
-        <v>16574.80450994318</v>
+        <v>16824.35067471591</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7299999892711639</v>
+        <v>0.6775000095367432</v>
       </c>
       <c r="C51" t="n">
-        <v>16246.8037109375</v>
+        <v>16495.6494140625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8269318233836781</v>
+        <v>0.8226136294278231</v>
       </c>
       <c r="E51" t="n">
-        <v>16246.25754616477</v>
+        <v>16494.62553267046</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6500000059604645</v>
+        <v>0.6749999821186066</v>
       </c>
       <c r="C52" t="n">
-        <v>15924.3134765625</v>
+        <v>16171.8740234375</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8285227309573781</v>
+        <v>0.8173863671042703</v>
       </c>
       <c r="E52" t="n">
-        <v>15923.71724076705</v>
+        <v>16170.89683948864</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7074999809265137</v>
+        <v>0.625</v>
       </c>
       <c r="C53" t="n">
-        <v>15607.6484375</v>
+        <v>15854.1328125</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8278409188443964</v>
+        <v>0.8248863599517129</v>
       </c>
       <c r="E53" t="n">
-        <v>15607.19788707386</v>
+        <v>15853.09401633523</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6875</v>
+        <v>0.6974999904632568</v>
       </c>
       <c r="C54" t="n">
-        <v>15297.21142578125</v>
+        <v>15542.0517578125</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7911363623358987</v>
+        <v>0.817727267742157</v>
       </c>
       <c r="E54" t="n">
-        <v>15296.49254261364</v>
+        <v>15541.08132102273</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.6550000011920929</v>
+        <v>0.6725000143051147</v>
       </c>
       <c r="C55" t="n">
-        <v>14992.14404296875</v>
+        <v>15235.75390625</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7970454584468495</v>
+        <v>0.8110227368094705</v>
       </c>
       <c r="E55" t="n">
-        <v>14991.5859375</v>
+        <v>15234.79172585227</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1490,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6599999964237213</v>
+        <v>0.695000022649765</v>
       </c>
       <c r="C56" t="n">
-        <v>14692.61865234375</v>
+        <v>14935.05322265625</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8323863636363636</v>
+        <v>0.8260227279229597</v>
       </c>
       <c r="E56" t="n">
-        <v>14691.984375</v>
+        <v>14933.93004261364</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6949999928474426</v>
+        <v>0.6450000107288361</v>
       </c>
       <c r="C57" t="n">
-        <v>14398.6845703125</v>
+        <v>14639.8681640625</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8285227255387739</v>
+        <v>0.7872727350755171</v>
       </c>
       <c r="E57" t="n">
-        <v>14398.10697798295</v>
+        <v>14638.93412642045</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.637499988079071</v>
+        <v>0.6225000023841858</v>
       </c>
       <c r="C58" t="n">
-        <v>14111.423828125</v>
+        <v>14350.41162109375</v>
       </c>
       <c r="D58" t="n">
-        <v>0.6855681863698092</v>
+        <v>0.7577272761951793</v>
       </c>
       <c r="E58" t="n">
-        <v>14110.84614701705</v>
+        <v>14349.42311789773</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7074999809265137</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C59" t="n">
-        <v>13827.2451171875</v>
+        <v>14065.4541015625</v>
       </c>
       <c r="D59" t="n">
-        <v>0.8297727270559832</v>
+        <v>0.8050000017339533</v>
       </c>
       <c r="E59" t="n">
-        <v>13826.73526278409</v>
+        <v>14064.5283203125</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6725000143051147</v>
+        <v>0.695000022649765</v>
       </c>
       <c r="C60" t="n">
-        <v>13549.68701171875</v>
+        <v>13785.8984375</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7759090824560686</v>
+        <v>0.8081818168813532</v>
       </c>
       <c r="E60" t="n">
-        <v>13549.15749289773</v>
+        <v>13785.14968039773</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1578,13 +1578,13 @@
         <v>0.6599999964237213</v>
       </c>
       <c r="C61" t="n">
-        <v>13277.05712890625</v>
+        <v>13511.8935546875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8150000084530223</v>
+        <v>0.8167045333168723</v>
       </c>
       <c r="E61" t="n">
-        <v>13276.560546875</v>
+        <v>13511.03950639205</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7024999856948853</v>
+        <v>0.6974999904632568</v>
       </c>
       <c r="C62" t="n">
-        <v>13009.470703125</v>
+        <v>13242.904296875</v>
       </c>
       <c r="D62" t="n">
-        <v>0.8305681835521351</v>
+        <v>0.7729545452378013</v>
       </c>
       <c r="E62" t="n">
-        <v>13008.91361860795</v>
+        <v>13241.96528764205</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6450000107288361</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="C63" t="n">
-        <v>12747.015625</v>
+        <v>12978.6826171875</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8130681839856234</v>
+        <v>0.78125</v>
       </c>
       <c r="E63" t="n">
-        <v>12746.57572798295</v>
+        <v>12977.92631392045</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6699999868869781</v>
+        <v>0.6825000047683716</v>
       </c>
       <c r="C64" t="n">
-        <v>12489.2431640625</v>
+        <v>12719.23095703125</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8390909054062583</v>
+        <v>0.7853409051895142</v>
       </c>
       <c r="E64" t="n">
-        <v>12488.71360085227</v>
+        <v>12718.43794389205</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6875</v>
+        <v>0.7050000131130219</v>
       </c>
       <c r="C65" t="n">
-        <v>12236.50146484375</v>
+        <v>12464.52734375</v>
       </c>
       <c r="D65" t="n">
-        <v>0.8327272859486666</v>
+        <v>0.8227272629737854</v>
       </c>
       <c r="E65" t="n">
-        <v>12235.92551491477</v>
+        <v>12463.86656605114</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6599999964237213</v>
+        <v>0.7324999868869781</v>
       </c>
       <c r="C66" t="n">
-        <v>11988.447265625</v>
+        <v>12214.599609375</v>
       </c>
       <c r="D66" t="n">
-        <v>0.8143181855028326</v>
+        <v>0.8354545452378013</v>
       </c>
       <c r="E66" t="n">
-        <v>11987.89692826705</v>
+        <v>12213.98410866477</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7075000107288361</v>
+        <v>0.6649999916553497</v>
       </c>
       <c r="C67" t="n">
-        <v>11744.876953125</v>
+        <v>11969.6650390625</v>
       </c>
       <c r="D67" t="n">
-        <v>0.816931816664609</v>
+        <v>0.8265909064899791</v>
       </c>
       <c r="E67" t="n">
-        <v>11744.39950284091</v>
+        <v>11968.91068892045</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6375000178813934</v>
+        <v>0.6475000083446503</v>
       </c>
       <c r="C68" t="n">
-        <v>11506.02734375</v>
+        <v>11729.416015625</v>
       </c>
       <c r="D68" t="n">
-        <v>0.8210227218541232</v>
+        <v>0.7815909060564908</v>
       </c>
       <c r="E68" t="n">
-        <v>11505.45809659091</v>
+        <v>11728.61940696023</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7224999964237213</v>
+        <v>0.6949999928474426</v>
       </c>
       <c r="C69" t="n">
-        <v>11271.42529296875</v>
+        <v>11492.99853515625</v>
       </c>
       <c r="D69" t="n">
-        <v>0.8257954499938271</v>
+        <v>0.8196590867909518</v>
       </c>
       <c r="E69" t="n">
-        <v>11271.01926491477</v>
+        <v>11492.15704900568</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.6574999988079071</v>
+        <v>0.6624999940395355</v>
       </c>
       <c r="C70" t="n">
-        <v>11041.4892578125</v>
+        <v>11261.21435546875</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8165909051895142</v>
+        <v>0.8339772766286676</v>
       </c>
       <c r="E70" t="n">
-        <v>11041.08602627841</v>
+        <v>11260.41876775568</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7125000059604645</v>
+        <v>0.6724999845027924</v>
       </c>
       <c r="C71" t="n">
-        <v>10815.81005859375</v>
+        <v>11033.83935546875</v>
       </c>
       <c r="D71" t="n">
-        <v>0.8120454549789429</v>
+        <v>0.8276136409152638</v>
       </c>
       <c r="E71" t="n">
-        <v>10815.40838068182</v>
+        <v>11032.95454545455</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7549999952316284</v>
+        <v>0.6300000250339508</v>
       </c>
       <c r="C72" t="n">
-        <v>10594.2646484375</v>
+        <v>10810.5048828125</v>
       </c>
       <c r="D72" t="n">
-        <v>0.817272728139704</v>
+        <v>0.8139772848649458</v>
       </c>
       <c r="E72" t="n">
-        <v>10593.9130859375</v>
+        <v>10809.77219460227</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7125000059604645</v>
+        <v>0.6550000011920929</v>
       </c>
       <c r="C73" t="n">
-        <v>10377.0986328125</v>
+        <v>10591.44482421875</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8206818103790283</v>
+        <v>0.8167045333168723</v>
       </c>
       <c r="E73" t="n">
-        <v>10376.70569957386</v>
+        <v>10590.7890625</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7299999892711639</v>
+        <v>0.6850000023841858</v>
       </c>
       <c r="C74" t="n">
-        <v>10163.75927734375</v>
+        <v>10376.6455078125</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8109090978449042</v>
+        <v>0.7994318170980974</v>
       </c>
       <c r="E74" t="n">
-        <v>10163.55335582386</v>
+        <v>10375.96368963068</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7199999988079071</v>
+        <v>0.7000000178813934</v>
       </c>
       <c r="C75" t="n">
-        <v>9954.86767578125</v>
+        <v>10165.4794921875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7985227270559832</v>
+        <v>0.8230681798674844</v>
       </c>
       <c r="E75" t="n">
-        <v>9954.53817471591</v>
+        <v>10164.89568536932</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.6800000071525574</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="C76" t="n">
-        <v>9749.73876953125</v>
+        <v>9958.76318359375</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7928409034555609</v>
+        <v>0.7536363764242693</v>
       </c>
       <c r="E76" t="n">
-        <v>9749.301313920454</v>
+        <v>9958.124467329546</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7150000035762787</v>
+        <v>0.6974999904632568</v>
       </c>
       <c r="C77" t="n">
-        <v>9548.25439453125</v>
+        <v>9755.44580078125</v>
       </c>
       <c r="D77" t="n">
-        <v>0.8298863660205494</v>
+        <v>0.8215909058397467</v>
       </c>
       <c r="E77" t="n">
-        <v>9547.96590909091</v>
+        <v>9754.80362215909</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6450000107288361</v>
+        <v>0.625</v>
       </c>
       <c r="C78" t="n">
-        <v>9351.4013671875</v>
+        <v>9556.51611328125</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7478409138592806</v>
+        <v>0.7660227255387739</v>
       </c>
       <c r="E78" t="n">
-        <v>9350.991743607954</v>
+        <v>9555.881125710228</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1884,13 +1884,13 @@
         <v>0.6274999976158142</v>
       </c>
       <c r="C79" t="n">
-        <v>9158.05078125</v>
+        <v>9361.4013671875</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6944318251176314</v>
+        <v>0.683068183335391</v>
       </c>
       <c r="E79" t="n">
-        <v>9157.467507102272</v>
+        <v>9360.66512784091</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.6699999868869781</v>
+        <v>0.6674999892711639</v>
       </c>
       <c r="C80" t="n">
-        <v>8967.44482421875</v>
+        <v>9168.8720703125</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7952272729440168</v>
+        <v>0.8196590867909518</v>
       </c>
       <c r="E80" t="n">
-        <v>8967.09188565341</v>
+        <v>9168.267134232954</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6875</v>
+        <v>0.6899999976158142</v>
       </c>
       <c r="C81" t="n">
-        <v>8781.13671875</v>
+        <v>8980.68310546875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.8094318183985624</v>
+        <v>0.8126136389645663</v>
       </c>
       <c r="E81" t="n">
-        <v>8780.686967329546</v>
+        <v>8980.11922940341</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,241 +1962,241 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0101010101010101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.007092198581560284</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.0101010101010101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.007092198581560284</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.0101010101010101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.007092198581560284</v>
+        <v>0.01418439716312057</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.01418439716312057</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.01418439716312057</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1313131313131313</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1313131313131313</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1919191919191919</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.02836879432624113</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1919191919191919</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.02836879432624113</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.03546099290780142</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.03546099290780142</v>
+        <v>0.05673758865248227</v>
       </c>
       <c r="B13" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2323232323232323</v>
+        <v>0.2828282828282828</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="B14" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2323232323232323</v>
+        <v>0.2828282828282828</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.0425531914893617</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="B15" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2626262626262627</v>
+        <v>0.2929292929292929</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2626262626262627</v>
+        <v>0.2929292929292929</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.06382978723404255</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2828282828282828</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.07092198581560284</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2828282828282828</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.07092198581560284</v>
+        <v>0.09219858156028368</v>
       </c>
       <c r="B19" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3232323232323233</v>
+        <v>0.3535353535353535</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.07801418439716312</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="B20" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3232323232323233</v>
+        <v>0.3535353535353535</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.07801418439716312</v>
+        <v>0.09929078014184398</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="B22" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.0851063829787234</v>
+        <v>0.1063829787234043</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3535353535353535</v>
+        <v>0.3737373737373738</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2204,10 +2204,10 @@
         <v>0.1205673758865248</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3535353535353535</v>
+        <v>0.3737373737373738</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2215,318 +2215,318 @@
         <v>0.1205673758865248</v>
       </c>
       <c r="B25" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.4141414141414141</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.1347517730496454</v>
       </c>
       <c r="B26" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.4141414141414141</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.1347517730496454</v>
       </c>
       <c r="B27" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1347517730496454</v>
+        <v>0.1560283687943262</v>
       </c>
       <c r="B28" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1347517730496454</v>
+        <v>0.1560283687943262</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C29" t="n">
-        <v>0.494949494949495</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.148936170212766</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C30" t="n">
-        <v>0.494949494949495</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.148936170212766</v>
+        <v>0.1773049645390071</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.4646464646464646</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.1560283687943262</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.4646464646464646</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.1560283687943262</v>
+        <v>0.1843971631205674</v>
       </c>
       <c r="B33" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.494949494949495</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.2056737588652482</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.494949494949495</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.2056737588652482</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5151515151515151</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.2198581560283688</v>
       </c>
       <c r="B36" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5151515151515151</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.1843971631205674</v>
+        <v>0.2198581560283688</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5353535353535354</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.198581560283688</v>
+        <v>0.2269503546099291</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5858585858585859</v>
+        <v>0.5353535353535354</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.198581560283688</v>
+        <v>0.2269503546099291</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5656565656565656</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2056737588652482</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5959595959595959</v>
+        <v>0.5656565656565656</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2056737588652482</v>
+        <v>0.2340425531914894</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5757575757575758</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2198581560283688</v>
+        <v>0.2482269503546099</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.5757575757575758</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2198581560283688</v>
+        <v>0.2482269503546099</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.5959595959595959</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.2411347517730496</v>
+        <v>0.2695035460992908</v>
       </c>
       <c r="B44" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6262626262626263</v>
+        <v>0.5959595959595959</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.2411347517730496</v>
+        <v>0.2695035460992908</v>
       </c>
       <c r="B45" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6161616161616161</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.2482269503546099</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.6161616161616161</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.2482269503546099</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6262626262626263</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.2765957446808511</v>
+        <v>0.2836879432624114</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6262626262626263</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.2765957446808511</v>
+        <v>0.2836879432624114</v>
       </c>
       <c r="B49" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C49" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3120567375886525</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C50" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3120567375886525</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="B51" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C51" t="n">
-        <v>0.696969696969697</v>
+        <v>0.6464646464646465</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3262411347517731</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C52" t="n">
-        <v>0.696969696969697</v>
+        <v>0.6464646464646465</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3262411347517731</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.6767676767676768</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2534,10 +2534,10 @@
         <v>0.3404255319148936</v>
       </c>
       <c r="B54" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.6767676767676768</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2545,32 +2545,32 @@
         <v>0.3404255319148936</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C55" t="n">
-        <v>0.7474747474747475</v>
+        <v>0.7070707070707071</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.3546099290780142</v>
       </c>
       <c r="B56" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C56" t="n">
-        <v>0.7474747474747475</v>
+        <v>0.7070707070707071</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.3546099290780142</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C57" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2578,10 +2578,10 @@
         <v>0.3687943262411347</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C58" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2589,372 +2589,504 @@
         <v>0.3687943262411347</v>
       </c>
       <c r="B59" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.7373737373737373</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.375886524822695</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="B60" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.7373737373737373</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.375886524822695</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="B61" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7474747474747475</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.3971631205673759</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C62" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7474747474747475</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.3971631205673759</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C63" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4539007092198581</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4539007092198581</v>
+        <v>0.425531914893617</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C65" t="n">
-        <v>0.797979797979798</v>
+        <v>0.7676767676767676</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.4893617021276596</v>
+        <v>0.4397163120567376</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C66" t="n">
-        <v>0.797979797979798</v>
+        <v>0.7676767676767676</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.4893617021276596</v>
+        <v>0.4397163120567376</v>
       </c>
       <c r="B67" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8080808080808081</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5390070921985816</v>
+        <v>0.4539007092198581</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8080808080808081</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5390070921985816</v>
+        <v>0.4539007092198581</v>
       </c>
       <c r="B69" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5815602836879432</v>
+        <v>0.4609929078014184</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5815602836879432</v>
+        <v>0.4609929078014184</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.797979797979798</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5886524822695035</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.797979797979798</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5886524822695035</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C73" t="n">
-        <v>0.898989898989899</v>
+        <v>0.8080808080808081</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6028368794326241</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="B74" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C74" t="n">
-        <v>0.898989898989899</v>
+        <v>0.8080808080808081</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6028368794326241</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.5177304964539007</v>
       </c>
       <c r="B76" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.5177304964539007</v>
       </c>
       <c r="B77" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9191919191919192</v>
+        <v>0.8282828282828283</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6312056737588653</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="B78" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9191919191919192</v>
+        <v>0.8282828282828283</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.6312056737588653</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9292929292929293</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.5673758865248227</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9292929292929293</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.5673758865248227</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.8585858585858586</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6950354609929078</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.8585858585858586</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6950354609929078</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="B83" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9494949494949495</v>
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.6099290780141844</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9494949494949495</v>
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7021276595744681</v>
+        <v>0.6099290780141844</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.6453900709219859</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.8085106382978723</v>
+        <v>0.6453900709219859</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9797979797979798</v>
+        <v>0.898989898989899</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.8226950354609929</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9797979797979798</v>
+        <v>0.898989898989899</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.8226950354609929</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9898989898989899</v>
+        <v>0.9191919191919192</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8865248226950354</v>
+        <v>0.7730496453900709</v>
       </c>
       <c r="B90" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9898989898989899</v>
+        <v>0.9191919191919192</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8865248226950354</v>
+        <v>0.7730496453900709</v>
       </c>
       <c r="B91" t="n">
-        <v>0.7663872770255749</v>
+        <v>0.7307471881939969</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0.9292929292929293</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
+        <v>0.8156028368794326</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9292929292929293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>0.8156028368794326</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>0.8226950354609929</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9393939393939394</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>0.8226950354609929</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9494949494949495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>0.8368794326241135</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9494949494949495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>0.8368794326241135</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9595959595959596</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>0.8439716312056738</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9595959595959596</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>0.8439716312056738</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>0.8581560283687943</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9696969696969697</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>0.8581560283687943</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9797979797979798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>0.9078014184397163</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9797979797979798</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>0.9078014184397163</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C103" t="n">
         <v>1</v>
       </c>
-      <c r="B92" t="n">
-        <v>0.7663872770255749</v>
-      </c>
-      <c r="C92" t="n">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7307471881939969</v>
+      </c>
+      <c r="C104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,7 +3101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2993,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C2" t="n">
         <v>0.007092198581560284</v>
@@ -3004,76 +3136,76 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1134751773049645</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="B4" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1134751773049645</v>
+        <v>0.09219858156028368</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.0101010101010101</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="B5" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1773049645390071</v>
+        <v>0.1418439716312057</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.0202020202020202</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="B6" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1773049645390071</v>
+        <v>0.1418439716312057</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.0202020202020202</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="B7" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.1560283687943262</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="B8" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1914893617021277</v>
+        <v>0.1560283687943262</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.0303030303030303</v>
+        <v>0.04040404040404041</v>
       </c>
       <c r="B9" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2978723404255319</v>
+        <v>0.1631205673758865</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3081,10 +3213,10 @@
         <v>0.0505050505050505</v>
       </c>
       <c r="B10" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2978723404255319</v>
+        <v>0.1631205673758865</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3092,10 +3224,10 @@
         <v>0.0505050505050505</v>
       </c>
       <c r="B11" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3049645390070922</v>
+        <v>0.1773049645390071</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3103,10 +3235,10 @@
         <v>0.06060606060606061</v>
       </c>
       <c r="B12" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3049645390070922</v>
+        <v>0.1773049645390071</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -3114,10 +3246,10 @@
         <v>0.06060606060606061</v>
       </c>
       <c r="B13" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.1843971631205674</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3125,10 +3257,10 @@
         <v>0.0707070707070707</v>
       </c>
       <c r="B14" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.1843971631205674</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -3136,10 +3268,10 @@
         <v>0.0707070707070707</v>
       </c>
       <c r="B15" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3687943262411347</v>
+        <v>0.2269503546099291</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3147,10 +3279,10 @@
         <v>0.08080808080808081</v>
       </c>
       <c r="B16" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3687943262411347</v>
+        <v>0.2269503546099291</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3158,834 +3290,966 @@
         <v>0.08080808080808081</v>
       </c>
       <c r="B17" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.2340425531914894</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="B18" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.2340425531914894</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.101010101010101</v>
       </c>
       <c r="B19" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3971631205673759</v>
+        <v>0.3546099290780142</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.101010101010101</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B20" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3971631205673759</v>
+        <v>0.3546099290780142</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.101010101010101</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B21" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4113475177304964</v>
+        <v>0.3900709219858156</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="B22" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4113475177304964</v>
+        <v>0.3900709219858156</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="B23" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4184397163120567</v>
+        <v>0.425531914893617</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="B24" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4184397163120567</v>
+        <v>0.425531914893617</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.1414141414141414</v>
       </c>
       <c r="B25" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4609929078014184</v>
+        <v>0.4326241134751773</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1919191919191919</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="B26" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4609929078014184</v>
+        <v>0.4326241134751773</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1919191919191919</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="B27" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.4680851063829787</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.202020202020202</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="B28" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5106382978723404</v>
+        <v>0.4680851063829787</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.202020202020202</v>
+        <v>0.1717171717171717</v>
       </c>
       <c r="B29" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5460992907801419</v>
+        <v>0.4822695035460993</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="B30" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5460992907801419</v>
+        <v>0.4822695035460993</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="B31" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.5106382978723404</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="B32" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.5106382978723404</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1919191919191919</v>
       </c>
       <c r="B33" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C33" t="n">
-        <v>0.624113475177305</v>
+        <v>0.5319148936170213</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2323232323232323</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="B34" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C34" t="n">
-        <v>0.624113475177305</v>
+        <v>0.5319148936170213</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2323232323232323</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="B35" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6312056737588653</v>
+        <v>0.5390070921985816</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="B36" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6312056737588653</v>
+        <v>0.5390070921985816</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="B37" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.5460992907801419</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2525252525252525</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B38" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6382978723404256</v>
+        <v>0.5460992907801419</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2525252525252525</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B39" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.5602836879432624</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2626262626262627</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="B40" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6595744680851063</v>
+        <v>0.5602836879432624</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2626262626262627</v>
+        <v>0.2323232323232323</v>
       </c>
       <c r="B41" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6737588652482269</v>
+        <v>0.574468085106383</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.303030303030303</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="B42" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6737588652482269</v>
+        <v>0.574468085106383</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.303030303030303</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="B43" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6879432624113475</v>
+        <v>0.6028368794326241</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3232323232323233</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="B44" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6879432624113475</v>
+        <v>0.6028368794326241</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3232323232323233</v>
+        <v>0.2525252525252525</v>
       </c>
       <c r="B45" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C45" t="n">
-        <v>0.723404255319149</v>
+        <v>0.6170212765957447</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="B46" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C46" t="n">
-        <v>0.723404255319149</v>
+        <v>0.6170212765957447</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2626262626262627</v>
       </c>
       <c r="B47" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C47" t="n">
-        <v>0.75177304964539</v>
+        <v>0.6312056737588653</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="B48" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C48" t="n">
-        <v>0.75177304964539</v>
+        <v>0.6312056737588653</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="B49" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7588652482269503</v>
+        <v>0.6453900709219859</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3737373737373738</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="B50" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7588652482269503</v>
+        <v>0.6453900709219859</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3737373737373738</v>
+        <v>0.2929292929292929</v>
       </c>
       <c r="B51" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.6595744680851063</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="B52" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7801418439716312</v>
+        <v>0.6595744680851063</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="B53" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C53" t="n">
-        <v>0.7943262411347518</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.404040404040404</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="B54" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C54" t="n">
-        <v>0.7943262411347518</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.404040404040404</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="B55" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8014184397163121</v>
+        <v>0.6808510638297872</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="B56" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8014184397163121</v>
+        <v>0.6808510638297872</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="B57" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8156028368794326</v>
+        <v>0.7163120567375887</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="B58" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8156028368794326</v>
+        <v>0.7163120567375887</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3737373737373738</v>
       </c>
       <c r="B59" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="B60" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8297872340425532</v>
+        <v>0.723404255319149</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4646464646464646</v>
+        <v>0.3838383838383838</v>
       </c>
       <c r="B61" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8439716312056738</v>
+        <v>0.7304964539007093</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="B62" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8439716312056738</v>
+        <v>0.7304964539007093</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.404040404040404</v>
       </c>
       <c r="B63" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C63" t="n">
-        <v>0.851063829787234</v>
+        <v>0.75177304964539</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="B64" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C64" t="n">
-        <v>0.851063829787234</v>
+        <v>0.75177304964539</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5050505050505051</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="B65" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C65" t="n">
-        <v>0.8652482269503546</v>
+        <v>0.7659574468085106</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="B66" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8652482269503546</v>
+        <v>0.7659574468085106</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5252525252525253</v>
+        <v>0.4343434343434344</v>
       </c>
       <c r="B67" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.7730496453900709</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="B68" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.7730496453900709</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5353535353535354</v>
+        <v>0.4646464646464646</v>
       </c>
       <c r="B69" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8794326241134752</v>
+        <v>0.7801418439716312</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6464646464646465</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="B70" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C70" t="n">
-        <v>0.8794326241134752</v>
+        <v>0.7801418439716312</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6464646464646465</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="B71" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.7943262411347518</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="B72" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.7943262411347518</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="B73" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9219858156028369</v>
+        <v>0.8156028368794326</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="B74" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C74" t="n">
-        <v>0.9219858156028369</v>
+        <v>0.8156028368794326</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6767676767676768</v>
+        <v>0.5353535353535354</v>
       </c>
       <c r="B75" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.8226950354609929</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.7171717171717171</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="B76" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C76" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.8226950354609929</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.7171717171717171</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="B77" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C77" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.8439716312056738</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="B78" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.8439716312056738</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7373737373737373</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="B79" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C79" t="n">
-        <v>0.9574468085106383</v>
+        <v>0.8652482269503546</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="B80" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9574468085106383</v>
+        <v>0.8652482269503546</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.7676767676767676</v>
+        <v>0.5858585858585859</v>
       </c>
       <c r="B81" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C81" t="n">
-        <v>0.9645390070921985</v>
+        <v>0.8794326241134752</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="B82" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9645390070921985</v>
+        <v>0.8794326241134752</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.6262626262626263</v>
       </c>
       <c r="B83" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9716312056737588</v>
+        <v>0.8936170212765957</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.8080808080808081</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="B84" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9716312056737588</v>
+        <v>0.8936170212765957</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.8080808080808081</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="B85" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.900709219858156</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="B86" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C86" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.900709219858156</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.6464646464646465</v>
       </c>
       <c r="B87" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C87" t="n">
-        <v>0.9858156028368794</v>
+        <v>0.9078014184397163</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B88" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9858156028368794</v>
+        <v>0.9078014184397163</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B89" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9929078014184397</v>
+        <v>0.9148936170212766</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="B90" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9929078014184397</v>
+        <v>0.9148936170212766</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="B91" t="n">
-        <v>0.766387277025575</v>
+        <v>0.7307830073787519</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0.9361702127659575</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
+        <v>0.7171717171717171</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.9361702127659575</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>0.7171717171717171</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.9432624113475178</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9432624113475178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9503546099290781</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.9503546099290781</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9574468085106383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>0.8686868686868687</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9574468085106383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>0.8686868686868687</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.9716312056737588</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.9716312056737588</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9858156028368794</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>0.9898989898989899</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9858156028368794</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>0.9898989898989899</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C103" t="n">
         <v>1</v>
       </c>
-      <c r="B92" t="n">
-        <v>0.766387277025575</v>
-      </c>
-      <c r="C92" t="n">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="n">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7307830073787519</v>
+      </c>
+      <c r="C104" t="n">
         <v>1</v>
       </c>
     </row>
